--- a/src/analysis_examples/circadipy/results_circadipy/square_0/cosinor_per_day_fixed_period_1_square_0_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/square_0/cosinor_per_day_fixed_period_1_square_0_.xlsx
@@ -599,14 +599,14 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>[53.31809128510996, 75.35547727817884]</t>
+          <t>[53.58048282556054, 75.09308573772826]</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>2.442490654175344e-15</v>
+        <v>1.110223024625157e-15</v>
       </c>
       <c r="O2" t="n">
-        <v>2.442490654175344e-15</v>
+        <v>1.110223024625157e-15</v>
       </c>
       <c r="P2" t="n">
         <v>1.603816069400194</v>
@@ -627,7 +627,7 @@
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>[41.61391865271062, 55.71053746832635]</t>
+          <t>[41.60189324682019, 55.722562874216784]</t>
         </is>
       </c>
       <c r="V2" t="n">
@@ -685,14 +685,14 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>[52.34447781371618, 76.63787572969572]</t>
+          <t>[52.32905360881331, 76.65329993459859]</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>6.106226635438361e-14</v>
+        <v>6.372680161348399e-14</v>
       </c>
       <c r="O3" t="n">
-        <v>6.106226635438361e-14</v>
+        <v>6.372680161348399e-14</v>
       </c>
       <c r="P3" t="n">
         <v>2.031500354573581</v>
@@ -713,7 +713,7 @@
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>[41.80682178473766, 54.642040451526604]</t>
+          <t>[41.80825094652131, 54.64061128974295]</t>
         </is>
       </c>
       <c r="V3" t="n">
@@ -771,21 +771,21 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>[50.82025749843625, 75.5943415727422]</t>
+          <t>[50.994569563484326, 75.42002950769412]</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>2.191580250610059e-13</v>
+        <v>1.394440118929197e-13</v>
       </c>
       <c r="O4" t="n">
-        <v>2.191580250610059e-13</v>
+        <v>1.394440118929197e-13</v>
       </c>
       <c r="P4" t="n">
         <v>2.434026740619119</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>[2.245342497160272, 2.6227109840779654]</t>
+          <t>[2.232763547596349, 2.6352899336418885]</t>
         </is>
       </c>
       <c r="R4" t="n">
@@ -799,7 +799,7 @@
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>[42.94692845621907, 55.61680018489709]</t>
+          <t>[42.95017422401657, 55.613554417099586]</t>
         </is>
       </c>
       <c r="V4" t="n">
@@ -812,10 +812,10 @@
         <v>13.74702702702707</v>
       </c>
       <c r="Y4" t="n">
-        <v>13.07315315315319</v>
+        <v>13.02822822822827</v>
       </c>
       <c r="Z4" t="n">
-        <v>14.42090090090095</v>
+        <v>14.46582582582587</v>
       </c>
     </row>
     <row r="5">
@@ -857,14 +857,14 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>[52.07575076328281, 72.55699083975416]</t>
+          <t>[51.557497779586654, 73.07524382345032]</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>6.661338147750939e-16</v>
+        <v>3.33066907387547e-15</v>
       </c>
       <c r="O5" t="n">
-        <v>6.661338147750939e-16</v>
+        <v>3.33066907387547e-15</v>
       </c>
       <c r="P5" t="n">
         <v>2.924605773612119</v>
@@ -885,7 +885,7 @@
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>[45.553866596007765, 58.30221085139112]</t>
+          <t>[45.54916183479121, 58.30691561260768]</t>
         </is>
       </c>
       <c r="V5" t="n">
@@ -943,21 +943,21 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>[53.884121263902756, 75.43749276280857]</t>
+          <t>[54.051948793386785, 75.26966523332455]</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>8.881784197001252e-16</v>
+        <v>4.440892098500626e-16</v>
       </c>
       <c r="O6" t="n">
-        <v>8.881784197001252e-16</v>
+        <v>4.440892098500626e-16</v>
       </c>
       <c r="P6" t="n">
         <v>-3.031526844905466</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>[-3.195053189236466, -2.8680005005744658]</t>
+          <t>[-3.207632138800389, -2.8554215510105427]</t>
         </is>
       </c>
       <c r="R6" t="n">
@@ -971,7 +971,7 @@
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>[43.29192331535223, 56.4699364365183]</t>
+          <t>[43.296498742852684, 56.46536100901785]</t>
         </is>
       </c>
       <c r="V6" t="n">
@@ -984,10 +984,10 @@
         <v>11.97521521521543</v>
       </c>
       <c r="Y6" t="n">
-        <v>11.32924924924945</v>
+        <v>11.27955955955976</v>
       </c>
       <c r="Z6" t="n">
-        <v>12.62118118118141</v>
+        <v>12.6708708708711</v>
       </c>
     </row>
     <row r="7">
@@ -1029,14 +1029,14 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>[53.916083382869374, 74.8942392155578]</t>
+          <t>[53.79558405227728, 75.0147385461499]</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>4.440892098500626e-16</v>
+        <v>6.661338147750939e-16</v>
       </c>
       <c r="O7" t="n">
-        <v>4.440892098500626e-16</v>
+        <v>6.661338147750939e-16</v>
       </c>
       <c r="P7" t="n">
         <v>3.000079470995658</v>
@@ -1057,7 +1057,7 @@
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>[43.38995167211548, 56.59402829011801]</t>
+          <t>[43.38875679044257, 56.59522317179092]</t>
         </is>
       </c>
       <c r="V7" t="n">
@@ -1115,14 +1115,14 @@
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>[52.26363576523305, 75.9049876349052]</t>
+          <t>[52.414958214833305, 75.75366518530494]</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>3.086420008457935e-14</v>
+        <v>2.020605904817785e-14</v>
       </c>
       <c r="O8" t="n">
-        <v>3.086420008457935e-14</v>
+        <v>2.020605904817785e-14</v>
       </c>
       <c r="P8" t="n">
         <v>2.811395227536812</v>
@@ -1143,7 +1143,7 @@
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>[41.4521415879778, 54.71419774542354]</t>
+          <t>[41.448996085265655, 54.717343248135684]</t>
         </is>
       </c>
       <c r="V8" t="n">
@@ -1201,14 +1201,14 @@
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>[51.222563949641014, 76.01278542463358]</t>
+          <t>[51.24177447198315, 75.99357490229144]</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>1.820765760385257e-13</v>
+        <v>1.731947918415244e-13</v>
       </c>
       <c r="O9" t="n">
-        <v>1.820765760385257e-13</v>
+        <v>1.731947918415244e-13</v>
       </c>
       <c r="P9" t="n">
         <v>2.610132034514043</v>
@@ -1229,7 +1229,7 @@
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>[43.786504185560865, 57.05172470282567]</t>
+          <t>[43.792685424885406, 57.04554346350113]</t>
         </is>
       </c>
       <c r="V9" t="n">
@@ -1287,21 +1287,21 @@
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>[50.27437814217132, 76.01297491688968]</t>
+          <t>[50.30214559764306, 75.98520746141794]</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>7.525091660909311e-13</v>
+        <v>7.036593530074242e-13</v>
       </c>
       <c r="O10" t="n">
-        <v>7.525091660909311e-13</v>
+        <v>7.036593530074242e-13</v>
       </c>
       <c r="P10" t="n">
         <v>2.345974093671658</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>[2.1447109006488883, 2.547237286694427]</t>
+          <t>[2.144710900648888, 2.5472372866944273]</t>
         </is>
       </c>
       <c r="R10" t="n">
@@ -1315,7 +1315,7 @@
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>[44.26775203369871, 57.434093620618796]</t>
+          <t>[44.26469901206232, 57.437146642255186]</t>
         </is>
       </c>
       <c r="V10" t="n">
@@ -1373,14 +1373,14 @@
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>[50.923077009902435, 75.11759882974783]</t>
+          <t>[50.426938291187746, 75.61373754846252]</t>
         </is>
       </c>
       <c r="N11" t="n">
-        <v>1.127986593019159e-13</v>
+        <v>4.061195824078823e-13</v>
       </c>
       <c r="O11" t="n">
-        <v>1.127986593019159e-13</v>
+        <v>4.061195824078823e-13</v>
       </c>
       <c r="P11" t="n">
         <v>2.207605648468504</v>
@@ -1401,7 +1401,7 @@
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>[44.57497588123562, 57.62729398084334]</t>
+          <t>[44.5743326628551, 57.627937199223865]</t>
         </is>
       </c>
       <c r="V11" t="n">
@@ -1459,14 +1459,14 @@
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>[51.854328654469924, 74.43098229150999]</t>
+          <t>[51.778023852495295, 74.50728709348462]</t>
         </is>
       </c>
       <c r="N12" t="n">
-        <v>1.088018564132653e-14</v>
+        <v>1.354472090042691e-14</v>
       </c>
       <c r="O12" t="n">
-        <v>1.088018564132653e-14</v>
+        <v>1.354472090042691e-14</v>
       </c>
       <c r="P12" t="n">
         <v>1.943447707626119</v>
@@ -1487,7 +1487,7 @@
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>[45.350471710403774, 57.95063497290666]</t>
+          <t>[45.34635770212569, 57.95474898118475]</t>
         </is>
       </c>
       <c r="V12" t="n">
@@ -1545,14 +1545,14 @@
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>[53.739839772266905, 73.34509286960824]</t>
+          <t>[53.65485833027368, 73.43007431160146]</t>
         </is>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>2.220446049250313e-16</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>2.220446049250313e-16</v>
       </c>
       <c r="P13" t="n">
         <v>1.742184514603349</v>
@@ -1573,7 +1573,7 @@
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>[43.897104999776445, 56.10281347587953]</t>
+          <t>[43.89577799219937, 56.104140483456604]</t>
         </is>
       </c>
       <c r="V13" t="n">
@@ -1631,7 +1631,7 @@
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>[53.83631797022204, 72.56847213231754]</t>
+          <t>[53.99447608976868, 72.4103140127709]</t>
         </is>
       </c>
       <c r="N14" t="n">
@@ -1659,7 +1659,7 @@
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>[44.013261409385926, 56.572187338042816]</t>
+          <t>[44.007522716351716, 56.57792603107703]</t>
         </is>
       </c>
       <c r="V14" t="n">

--- a/src/analysis_examples/circadipy/results_circadipy/square_0/cosinor_per_day_fixed_period_1_square_0_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/square_0/cosinor_per_day_fixed_period_1_square_0_.xlsx
@@ -599,21 +599,21 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>[53.58048282556054, 75.09308573772826]</t>
+          <t>[53.519375446517685, 75.15419311677111]</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>1.110223024625157e-15</v>
+        <v>1.332267629550188e-15</v>
       </c>
       <c r="O2" t="n">
-        <v>1.110223024625157e-15</v>
+        <v>1.332267629550188e-15</v>
       </c>
       <c r="P2" t="n">
         <v>1.603816069400194</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>[1.427710775505271, 1.7799213632951174]</t>
+          <t>[1.440289725069193, 1.7673424137311953]</t>
         </is>
       </c>
       <c r="R2" t="n">
@@ -627,7 +627,7 @@
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>[41.60189324682019, 55.722562874216784]</t>
+          <t>[41.60448910077151, 55.719967020265464]</t>
         </is>
       </c>
       <c r="V2" t="n">
@@ -640,10 +640,10 @@
         <v>16.71207207207213</v>
       </c>
       <c r="Y2" t="n">
-        <v>16.08312312312318</v>
+        <v>16.1280480480481</v>
       </c>
       <c r="Z2" t="n">
-        <v>17.34102102102107</v>
+        <v>17.29609609609615</v>
       </c>
     </row>
     <row r="3">
@@ -685,21 +685,21 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>[52.32905360881331, 76.65329993459859]</t>
+          <t>[52.55088158135641, 76.4314719620555]</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>6.372680161348399e-14</v>
+        <v>3.486100297322992e-14</v>
       </c>
       <c r="O3" t="n">
-        <v>6.372680161348399e-14</v>
+        <v>3.486100297322992e-14</v>
       </c>
       <c r="P3" t="n">
         <v>2.031500354573581</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>[1.8302371615508122, 2.232763547596349]</t>
+          <t>[1.8428161111147352, 2.220184598032426]</t>
         </is>
       </c>
       <c r="R3" t="n">
@@ -713,7 +713,7 @@
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>[41.80825094652131, 54.64061128974295]</t>
+          <t>[41.80636161426957, 54.64250062199469]</t>
         </is>
       </c>
       <c r="V3" t="n">
@@ -726,10 +726,10 @@
         <v>15.18462462462467</v>
       </c>
       <c r="Y3" t="n">
-        <v>14.46582582582587</v>
+        <v>14.5107507507508</v>
       </c>
       <c r="Z3" t="n">
-        <v>15.90342342342347</v>
+        <v>15.85849849849854</v>
       </c>
     </row>
     <row r="4">
@@ -771,21 +771,21 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>[50.994569563484326, 75.42002950769412]</t>
+          <t>[51.02635306002557, 75.38824601115287]</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>1.394440118929197e-13</v>
+        <v>1.281197370417431e-13</v>
       </c>
       <c r="O4" t="n">
-        <v>1.394440118929197e-13</v>
+        <v>1.281197370417431e-13</v>
       </c>
       <c r="P4" t="n">
         <v>2.434026740619119</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>[2.232763547596349, 2.6352899336418885]</t>
+          <t>[2.245342497160272, 2.6227109840779654]</t>
         </is>
       </c>
       <c r="R4" t="n">
@@ -799,7 +799,7 @@
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>[42.95017422401657, 55.613554417099586]</t>
+          <t>[42.94041522260862, 55.623313418507536]</t>
         </is>
       </c>
       <c r="V4" t="n">
@@ -812,10 +812,10 @@
         <v>13.74702702702707</v>
       </c>
       <c r="Y4" t="n">
-        <v>13.02822822822827</v>
+        <v>13.07315315315319</v>
       </c>
       <c r="Z4" t="n">
-        <v>14.46582582582587</v>
+        <v>14.42090090090095</v>
       </c>
     </row>
     <row r="5">
@@ -857,14 +857,14 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>[51.557497779586654, 73.07524382345032]</t>
+          <t>[51.593256988057675, 73.0394846149793]</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>3.33066907387547e-15</v>
+        <v>2.886579864025407e-15</v>
       </c>
       <c r="O5" t="n">
-        <v>3.33066907387547e-15</v>
+        <v>2.886579864025407e-15</v>
       </c>
       <c r="P5" t="n">
         <v>2.924605773612119</v>
@@ -885,7 +885,7 @@
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>[45.54916183479121, 58.30691561260768]</t>
+          <t>[45.54487906035868, 58.31119838704021]</t>
         </is>
       </c>
       <c r="V5" t="n">
@@ -943,21 +943,21 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>[54.051948793386785, 75.26966523332455]</t>
+          <t>[54.27408249311763, 75.0475315335937]</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>4.440892098500626e-16</v>
+        <v>2.220446049250313e-16</v>
       </c>
       <c r="O6" t="n">
-        <v>4.440892098500626e-16</v>
+        <v>2.220446049250313e-16</v>
       </c>
       <c r="P6" t="n">
         <v>-3.031526844905466</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>[-3.207632138800389, -2.8554215510105427]</t>
+          <t>[-3.195053189236466, -2.8680005005744658]</t>
         </is>
       </c>
       <c r="R6" t="n">
@@ -971,7 +971,7 @@
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>[43.296498742852684, 56.46536100901785]</t>
+          <t>[43.29153232024698, 56.47032743162355]</t>
         </is>
       </c>
       <c r="V6" t="n">
@@ -984,10 +984,10 @@
         <v>11.97521521521543</v>
       </c>
       <c r="Y6" t="n">
-        <v>11.27955955955976</v>
+        <v>11.32924924924945</v>
       </c>
       <c r="Z6" t="n">
-        <v>12.6708708708711</v>
+        <v>12.62118118118141</v>
       </c>
     </row>
     <row r="7">
@@ -1029,14 +1029,14 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>[53.79558405227728, 75.0147385461499]</t>
+          <t>[53.43433650079061, 75.37598609763657]</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>6.661338147750939e-16</v>
+        <v>1.998401444325282e-15</v>
       </c>
       <c r="O7" t="n">
-        <v>6.661338147750939e-16</v>
+        <v>1.998401444325282e-15</v>
       </c>
       <c r="P7" t="n">
         <v>3.000079470995658</v>
@@ -1057,7 +1057,7 @@
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>[43.38875679044257, 56.59522317179092]</t>
+          <t>[43.388836238035, 56.59514372419849]</t>
         </is>
       </c>
       <c r="V7" t="n">
@@ -1115,21 +1115,21 @@
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>[52.414958214833305, 75.75366518530494]</t>
+          <t>[52.364660631466094, 75.80396276867215]</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>2.020605904817785e-14</v>
+        <v>2.309263891220326e-14</v>
       </c>
       <c r="O8" t="n">
-        <v>2.020605904817785e-14</v>
+        <v>2.309263891220326e-14</v>
       </c>
       <c r="P8" t="n">
         <v>2.811395227536812</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>[2.610132034514043, 3.0126584205595814]</t>
+          <t>[2.6227109840779654, 3.000079470995659]</t>
         </is>
       </c>
       <c r="R8" t="n">
@@ -1143,7 +1143,7 @@
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>[41.448996085265655, 54.717343248135684]</t>
+          <t>[41.451022857743055, 54.715316475658284]</t>
         </is>
       </c>
       <c r="V8" t="n">
@@ -1156,10 +1156,10 @@
         <v>13.7143543543546</v>
       </c>
       <c r="Y8" t="n">
-        <v>12.91931931931955</v>
+        <v>12.96900900900924</v>
       </c>
       <c r="Z8" t="n">
-        <v>14.50938938938964</v>
+        <v>14.45969969969996</v>
       </c>
     </row>
     <row r="9">
@@ -1201,21 +1201,21 @@
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>[51.24177447198315, 75.99357490229144]</t>
+          <t>[51.60143150955071, 75.63391786472388]</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>1.731947918415244e-13</v>
+        <v>6.705747068735946e-14</v>
       </c>
       <c r="O9" t="n">
-        <v>1.731947918415244e-13</v>
+        <v>6.705747068735946e-14</v>
       </c>
       <c r="P9" t="n">
         <v>2.610132034514043</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>[2.408868841491273, 2.8113952275368126]</t>
+          <t>[2.4214477910551966, 2.798816277972889]</t>
         </is>
       </c>
       <c r="R9" t="n">
@@ -1229,7 +1229,7 @@
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>[43.792685424885406, 57.04554346350113]</t>
+          <t>[43.792471189139405, 57.04575769924713]</t>
         </is>
       </c>
       <c r="V9" t="n">
@@ -1242,10 +1242,10 @@
         <v>14.50938938938964</v>
       </c>
       <c r="Y9" t="n">
-        <v>13.71435435435459</v>
+        <v>13.76404404404429</v>
       </c>
       <c r="Z9" t="n">
-        <v>15.3044244244247</v>
+        <v>15.254734734735</v>
       </c>
     </row>
     <row r="10">
@@ -1287,21 +1287,21 @@
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>[50.30214559764306, 75.98520746141794]</t>
+          <t>[50.2184520587048, 76.0689010003562]</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>7.036593530074242e-13</v>
+        <v>8.610889778992714e-13</v>
       </c>
       <c r="O10" t="n">
-        <v>7.036593530074242e-13</v>
+        <v>8.610889778992714e-13</v>
       </c>
       <c r="P10" t="n">
         <v>2.345974093671658</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>[2.144710900648888, 2.5472372866944273]</t>
+          <t>[2.1447109006488883, 2.547237286694427]</t>
         </is>
       </c>
       <c r="R10" t="n">
@@ -1315,7 +1315,7 @@
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>[44.26469901206232, 57.437146642255186]</t>
+          <t>[44.2698971873896, 57.431948466927906]</t>
         </is>
       </c>
       <c r="V10" t="n">
@@ -1373,21 +1373,21 @@
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>[50.426938291187746, 75.61373754846252]</t>
+          <t>[50.27269637922492, 75.76797946042535]</t>
         </is>
       </c>
       <c r="N11" t="n">
-        <v>4.061195824078823e-13</v>
+        <v>5.948574965941589e-13</v>
       </c>
       <c r="O11" t="n">
-        <v>4.061195824078823e-13</v>
+        <v>5.948574965941589e-13</v>
       </c>
       <c r="P11" t="n">
         <v>2.207605648468504</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>[2.0063424554457345, 2.408868841491273]</t>
+          <t>[1.9937635058818115, 2.421447791055196]</t>
         </is>
       </c>
       <c r="R11" t="n">
@@ -1401,7 +1401,7 @@
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>[44.5743326628551, 57.627937199223865]</t>
+          <t>[44.583804857345214, 57.61846500473375]</t>
         </is>
       </c>
       <c r="V11" t="n">
@@ -1414,10 +1414,10 @@
         <v>16.09945945945974</v>
       </c>
       <c r="Y11" t="n">
-        <v>15.3044244244247</v>
+        <v>15.25473473473501</v>
       </c>
       <c r="Z11" t="n">
-        <v>16.89449449449479</v>
+        <v>16.94418418418448</v>
       </c>
     </row>
     <row r="12">
@@ -1459,21 +1459,21 @@
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>[51.778023852495295, 74.50728709348462]</t>
+          <t>[51.92961651952402, 74.3556944264559]</t>
         </is>
       </c>
       <c r="N12" t="n">
-        <v>1.354472090042691e-14</v>
+        <v>8.659739592076221e-15</v>
       </c>
       <c r="O12" t="n">
-        <v>1.354472090042691e-14</v>
+        <v>8.659739592076221e-15</v>
       </c>
       <c r="P12" t="n">
         <v>1.943447707626119</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>[1.7547634641672714, 2.1321319510849657]</t>
+          <t>[1.7673424137311962, 2.119553001521041]</t>
         </is>
       </c>
       <c r="R12" t="n">
@@ -1487,7 +1487,7 @@
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>[45.34635770212569, 57.95474898118475]</t>
+          <t>[45.34757805661077, 57.953528626699665]</t>
         </is>
       </c>
       <c r="V12" t="n">
@@ -1500,10 +1500,10 @@
         <v>17.14294294294325</v>
       </c>
       <c r="Y12" t="n">
-        <v>16.39759759759789</v>
+        <v>16.44728728728758</v>
       </c>
       <c r="Z12" t="n">
-        <v>17.88828828828861</v>
+        <v>17.83859859859891</v>
       </c>
     </row>
     <row r="13">
@@ -1545,14 +1545,14 @@
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>[53.65485833027368, 73.43007431160146]</t>
+          <t>[54.04663560489381, 73.03829703698133]</t>
         </is>
       </c>
       <c r="N13" t="n">
-        <v>2.220446049250313e-16</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>2.220446049250313e-16</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
         <v>1.742184514603349</v>
@@ -1573,7 +1573,7 @@
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>[43.89577799219937, 56.104140483456604]</t>
+          <t>[43.89839540604229, 56.101523069613684]</t>
         </is>
       </c>
       <c r="V13" t="n">
@@ -1631,7 +1631,7 @@
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>[53.99447608976868, 72.4103140127709]</t>
+          <t>[54.045776846773876, 72.3590132557657]</t>
         </is>
       </c>
       <c r="N14" t="n">
@@ -1659,7 +1659,7 @@
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>[44.007522716351716, 56.57792603107703]</t>
+          <t>[44.01086229801242, 56.57458644941632]</t>
         </is>
       </c>
       <c r="V14" t="n">
